--- a/tree_gases/GHG/GCREW_TreeGas_06_27_2019.xlsx
+++ b/tree_gases/GHG/GCREW_TreeGas_06_27_2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\penn529\Documents\Github\PREMIS-ghg\tree_gases\GHG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A4B44E7-A429-4826-B981-D54A9C5EAA23}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCE6CEC-3FD2-4EAC-91C7-23E314A9C893}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="576" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{A0BB915F-05FE-134D-9CE0-852DFBE336D7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A0BB915F-05FE-134D-9CE0-852DFBE336D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -261,9 +261,6 @@
     <t>PTV257</t>
   </si>
   <si>
-    <t>CMF109</t>
-  </si>
-  <si>
     <t>PTV227</t>
   </si>
   <si>
@@ -283,6 +280,9 @@
   </si>
   <si>
     <t>Couldn't get any more than this</t>
+  </si>
+  <si>
+    <t>CMF108</t>
   </si>
 </sst>
 </file>
@@ -671,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022806E5-818B-1A45-B771-EFD8981A779B}">
   <dimension ref="A1:AD36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1082,7 +1082,7 @@
         <v>48</v>
       </c>
       <c r="H10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I10">
         <v>12</v>
@@ -2208,7 +2208,7 @@
         <v>27</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F30" s="8">
         <v>2.1</v>
@@ -2276,7 +2276,7 @@
         <v>27</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F31" s="8">
         <v>2</v>
@@ -2306,7 +2306,7 @@
         <v>26</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F32" s="8">
         <v>2</v>
@@ -2336,7 +2336,7 @@
         <v>26</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F33" s="8">
         <v>2</v>
@@ -2404,7 +2404,7 @@
         <v>25</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F34" s="8">
         <v>2</v>
@@ -2472,7 +2472,7 @@
         <v>24</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F35" s="8">
         <v>2</v>
@@ -2540,7 +2540,7 @@
         <v>23</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F36" s="8">
         <v>2</v>
